--- a/document/SWP391_Ecommerce_G1_Work Assignment.xlsx
+++ b/document/SWP391_Ecommerce_G1_Work Assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeDeveloper\Học kì\Kì 5\SWP\Submit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Bmazone\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="9168"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
   <si>
     <t>Iteration</t>
   </si>
@@ -175,6 +175,99 @@
   </si>
   <si>
     <t>On-going</t>
+  </si>
+  <si>
+    <t>Iteration#1</t>
+  </si>
+  <si>
+    <t>Add feature to SRS</t>
+  </si>
+  <si>
+    <t>29/6/2021</t>
+  </si>
+  <si>
+    <t>Add feature/ function to Design Overview</t>
+  </si>
+  <si>
+    <t>Whoever creates any feature, they update themselves; Need more update</t>
+  </si>
+  <si>
+    <t>Code Product Management</t>
+  </si>
+  <si>
+    <t>Code Company Management</t>
+  </si>
+  <si>
+    <t>Code Gallery Management</t>
+  </si>
+  <si>
+    <t>Code Category List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Category Detail </t>
+  </si>
+  <si>
+    <t>Code Product List</t>
+  </si>
+  <si>
+    <t>Code Search Result</t>
+  </si>
+  <si>
+    <t>Update Login Page</t>
+  </si>
+  <si>
+    <t>Update Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Update User Management</t>
+  </si>
+  <si>
+    <t>Update Home Page</t>
+  </si>
+  <si>
+    <t>Update User Profile</t>
+  </si>
+  <si>
+    <t>Code Edit Profile</t>
+  </si>
+  <si>
+    <t>Code Account Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Upload Profile Image </t>
+  </si>
+  <si>
+    <t>Code User Authentocation</t>
+  </si>
+  <si>
+    <t>Code Seller Dashboard</t>
+  </si>
+  <si>
+    <t>Code Turn On Sale Feature</t>
+  </si>
+  <si>
+    <t>Update Register Page</t>
+  </si>
+  <si>
+    <t>Update Change Password</t>
+  </si>
+  <si>
+    <t>Update Forgot Password</t>
+  </si>
+  <si>
+    <t>Code Product Detail</t>
+  </si>
+  <si>
+    <t>Code Suggest List by Category</t>
+  </si>
+  <si>
+    <t>Code Suggest List by Seller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Wishlist </t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
   </si>
 </sst>
 </file>
@@ -185,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -228,6 +321,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,22 +361,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -515,7 +642,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -538,7 +665,7 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>44451</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -552,7 +679,7 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>44451</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -560,14 +687,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>44451</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -575,14 +702,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>44451</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -590,14 +717,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="10">
         <v>44451</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -614,7 +741,7 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="10">
         <v>44451</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -629,7 +756,7 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10">
         <v>44451</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -644,7 +771,7 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="10">
         <v>44451</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -659,7 +786,7 @@
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>44451</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -676,7 +803,7 @@
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>44456</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -691,7 +818,7 @@
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>44456</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -706,7 +833,7 @@
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>44456</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -721,7 +848,7 @@
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="11">
         <v>44456</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -735,7 +862,7 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>44456</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -752,7 +879,7 @@
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="10">
         <v>44458</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -766,7 +893,7 @@
       <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="13">
         <v>44458</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -780,7 +907,7 @@
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="13">
         <v>44458</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -794,7 +921,7 @@
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="13">
         <v>44458</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -808,7 +935,7 @@
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="13">
         <v>44458</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -822,7 +949,7 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="13">
         <v>44458</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -836,7 +963,7 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="13">
         <v>44458</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -853,7 +980,7 @@
       <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="10">
         <v>44464</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -861,13 +988,13 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11">
         <v>44464</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -875,13 +1002,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11">
         <v>44464</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -889,13 +1016,13 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
         <v>44464</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -903,13 +1030,13 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="11">
         <v>44464</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -917,13 +1044,13 @@
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="12">
         <v>44471</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -931,13 +1058,13 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="12">
         <v>44471</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -945,13 +1072,13 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="12">
         <v>44471</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -959,13 +1086,13 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="12">
         <v>44471</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -973,27 +1100,423 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="12">
         <v>44471</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="9"/>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="17">
+        <v>44265</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="16">
+        <v>44265</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="6"/>
     </row>
   </sheetData>
   <customSheetViews>
